--- a/dati_lab2 copia.xlsx
+++ b/dati_lab2 copia.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="I_B = 100 uA OLD" sheetId="1" state="visible" r:id="rId3"/>
@@ -23,9 +23,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
   <si>
-    <t xml:space="preserve">TUTTO NEGATIVO COLIONI</t>
+    <t xml:space="preserve">TUTTO NEGATIVO </t>
   </si>
   <si>
     <t xml:space="preserve">I_B</t>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t xml:space="preserve">stiamo aspettando tipo 3 sec tra misura oscillo e multi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CANE PORCO MAIALE ULTIJMA MISURA PEDDAVERO</t>
   </si>
   <si>
     <t xml:space="preserve">adesso lo stiamo facendo scaldare finché la corrente non è stabile</t>
@@ -481,11 +478,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="35212069"/>
-        <c:axId val="84480565"/>
+        <c:axId val="47985819"/>
+        <c:axId val="53985939"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="35212069"/>
+        <c:axId val="47985819"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -527,12 +524,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84480565"/>
+        <c:crossAx val="53985939"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="84480565"/>
+        <c:axId val="53985939"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -574,7 +571,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35212069"/>
+        <c:crossAx val="47985819"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -820,11 +817,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="75834467"/>
-        <c:axId val="586029"/>
+        <c:axId val="4480036"/>
+        <c:axId val="35699245"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="75834467"/>
+        <c:axId val="4480036"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -866,12 +863,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="586029"/>
+        <c:crossAx val="35699245"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="586029"/>
+        <c:axId val="35699245"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -913,7 +910,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75834467"/>
+        <c:crossAx val="4480036"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1210,11 +1207,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="58154869"/>
-        <c:axId val="13173920"/>
+        <c:axId val="45132"/>
+        <c:axId val="23140154"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="58154869"/>
+        <c:axId val="45132"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1256,12 +1253,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13173920"/>
+        <c:crossAx val="23140154"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="13173920"/>
+        <c:axId val="23140154"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1303,7 +1300,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58154869"/>
+        <c:crossAx val="45132"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1636,11 +1633,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="2805836"/>
-        <c:axId val="37986119"/>
+        <c:axId val="63447602"/>
+        <c:axId val="33673685"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2805836"/>
+        <c:axId val="63447602"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1682,12 +1679,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37986119"/>
+        <c:crossAx val="33673685"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="37986119"/>
+        <c:axId val="33673685"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1729,7 +1726,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2805836"/>
+        <c:crossAx val="63447602"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2023,11 +2020,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="86907612"/>
-        <c:axId val="22646846"/>
+        <c:axId val="78288286"/>
+        <c:axId val="22163445"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="86907612"/>
+        <c:axId val="78288286"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2069,12 +2066,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="22646846"/>
+        <c:crossAx val="22163445"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="22646846"/>
+        <c:axId val="22163445"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2116,7 +2113,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86907612"/>
+        <c:crossAx val="78288286"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2449,11 +2446,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="23550931"/>
-        <c:axId val="26122372"/>
+        <c:axId val="2049042"/>
+        <c:axId val="35767579"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="23550931"/>
+        <c:axId val="2049042"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2495,12 +2492,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="26122372"/>
+        <c:crossAx val="35767579"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="26122372"/>
+        <c:axId val="35767579"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2542,7 +2539,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="23550931"/>
+        <c:crossAx val="2049042"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2848,11 +2845,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="11224099"/>
-        <c:axId val="44044991"/>
+        <c:axId val="66027512"/>
+        <c:axId val="28533751"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="11224099"/>
+        <c:axId val="66027512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2880,12 +2877,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44044991"/>
+        <c:crossAx val="28533751"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="44044991"/>
+        <c:axId val="28533751"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2922,7 +2919,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11224099"/>
+        <c:crossAx val="66027512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3308,8 +3305,8 @@
   </sheetPr>
   <dimension ref="B1:U36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S2" activeCellId="0" sqref="S2:T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3336,36 +3333,33 @@
       <c r="J2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="0" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S3" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="E4" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="J4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="S4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T4" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4087,8 +4081,8 @@
   </sheetPr>
   <dimension ref="B1:H38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F6" activeCellId="1" sqref="S2:T2 F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4100,22 +4094,22 @@
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="F6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="0" t="s">
         <v>10</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4738,8 +4732,8 @@
   </sheetPr>
   <dimension ref="C1:M81"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G50" activeCellId="0" sqref="G50"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G50" activeCellId="1" sqref="S2:T2 G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4759,7 +4753,7 @@
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="3" t="n">
         <v>0.001</v>
@@ -4768,23 +4762,23 @@
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="3" t="n">
         <f aca="false">0.5*E2/5</f>
         <v>0.0001</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3" s="3" t="n">
         <v>0.03</v>
       </c>
       <c r="K3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="M3" s="0"/>
     </row>
@@ -4802,13 +4796,13 @@
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" s="3" t="n">
         <v>0.03</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H5" s="3" t="n">
         <v>0.01</v>
@@ -4828,19 +4822,19 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>10</v>
-      </c>
       <c r="E9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="G9" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -5985,8 +5979,8 @@
   </sheetPr>
   <dimension ref="C4:K81"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K78" activeCellId="0" sqref="K78"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K78" activeCellId="1" sqref="S2:T2 K78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6001,7 +5995,7 @@
   <sheetData>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="3" t="n">
         <v>0.001</v>
@@ -6009,29 +6003,29 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="3" t="n">
         <f aca="false">0.5*E4/5</f>
         <v>0.0001</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5" s="3" t="n">
         <v>0.03</v>
       </c>
       <c r="J5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="4"/>
       <c r="J6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K6" s="3" t="n">
         <f aca="false">ROUND(ABS(J6)*H7,2)+H5</f>
@@ -6040,13 +6034,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" s="3" t="n">
         <v>0.03</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H7" s="3" t="n">
         <v>0.01</v>
@@ -6054,19 +6048,19 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="E11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>11</v>
-      </c>
       <c r="F11" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
